--- a/data/pca/factorExposure/factorExposure_2009-08-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01771724104297611</v>
+        <v>0.01697235543753521</v>
       </c>
       <c r="C2">
-        <v>-0.001531569247497923</v>
+        <v>0.0009751196036072253</v>
       </c>
       <c r="D2">
-        <v>-0.003916386338752553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009537727563518511</v>
+      </c>
+      <c r="E2">
+        <v>0.002099512796118002</v>
+      </c>
+      <c r="F2">
+        <v>-0.01351503733030749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09551165852413554</v>
+        <v>0.09375145633498792</v>
       </c>
       <c r="C4">
-        <v>-0.02097508771478606</v>
+        <v>0.01466043421537855</v>
       </c>
       <c r="D4">
-        <v>-0.06620760685293935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08363370494030935</v>
+      </c>
+      <c r="E4">
+        <v>0.02870700023490629</v>
+      </c>
+      <c r="F4">
+        <v>0.0330686259698756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1488070472354536</v>
+        <v>0.1596511879840185</v>
       </c>
       <c r="C6">
-        <v>-0.02767719993216051</v>
+        <v>0.02706110714210815</v>
       </c>
       <c r="D6">
-        <v>0.02630444503958182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02528035968847596</v>
+      </c>
+      <c r="E6">
+        <v>0.008795002837780529</v>
+      </c>
+      <c r="F6">
+        <v>0.04184369128304698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06400343329458219</v>
+        <v>0.06362482224669867</v>
       </c>
       <c r="C7">
-        <v>-0.002904188636357546</v>
+        <v>-0.001694440366602058</v>
       </c>
       <c r="D7">
-        <v>-0.0396071571921833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05236923159475953</v>
+      </c>
+      <c r="E7">
+        <v>0.01192403862210729</v>
+      </c>
+      <c r="F7">
+        <v>0.04664973960446973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06353600509060514</v>
+        <v>0.05782797561781095</v>
       </c>
       <c r="C8">
-        <v>0.00981780299152955</v>
+        <v>-0.01314764948608415</v>
       </c>
       <c r="D8">
-        <v>-0.01764520572614963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0317390699546606</v>
+      </c>
+      <c r="E8">
+        <v>0.01765697172780045</v>
+      </c>
+      <c r="F8">
+        <v>-0.02547735207565531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07359443415225171</v>
+        <v>0.07098057528326412</v>
       </c>
       <c r="C9">
-        <v>-0.01730233827568086</v>
+        <v>0.01030038872257927</v>
       </c>
       <c r="D9">
-        <v>-0.06845145641393521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08720906725987969</v>
+      </c>
+      <c r="E9">
+        <v>0.02395836497941794</v>
+      </c>
+      <c r="F9">
+        <v>0.04692403976041861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08237832567136226</v>
+        <v>0.08973547429291306</v>
       </c>
       <c r="C10">
-        <v>-0.01217666209596485</v>
+        <v>0.02048983536355802</v>
       </c>
       <c r="D10">
-        <v>0.1666057970106062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1629494883160059</v>
+      </c>
+      <c r="E10">
+        <v>-0.03193891427444864</v>
+      </c>
+      <c r="F10">
+        <v>-0.05734548695134624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09356515517305396</v>
+        <v>0.08825755147905485</v>
       </c>
       <c r="C11">
-        <v>-0.01813167727692587</v>
+        <v>0.01038568382752826</v>
       </c>
       <c r="D11">
-        <v>-0.09634115398162406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169107980633116</v>
+      </c>
+      <c r="E11">
+        <v>0.04639280814543306</v>
+      </c>
+      <c r="F11">
+        <v>0.02318640559053848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09977269805206551</v>
+        <v>0.09156907026795046</v>
       </c>
       <c r="C12">
-        <v>-0.0160686334575545</v>
+        <v>0.00771888808514643</v>
       </c>
       <c r="D12">
-        <v>-0.09972593938133902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316253641502092</v>
+      </c>
+      <c r="E12">
+        <v>0.04565796141025832</v>
+      </c>
+      <c r="F12">
+        <v>0.03150529592142964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04448557955664798</v>
+        <v>0.04161251887428127</v>
       </c>
       <c r="C13">
-        <v>-0.00594558827019721</v>
+        <v>0.002413190616538361</v>
       </c>
       <c r="D13">
-        <v>-0.03095551114828464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05356757450897571</v>
+      </c>
+      <c r="E13">
+        <v>-0.00375677167149149</v>
+      </c>
+      <c r="F13">
+        <v>0.001050129852148406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01995065808591351</v>
+        <v>0.02398066520610037</v>
       </c>
       <c r="C14">
-        <v>-0.01537211413017297</v>
+        <v>0.01378673482810623</v>
       </c>
       <c r="D14">
-        <v>-0.02456714912432762</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03368627996836015</v>
+      </c>
+      <c r="E14">
+        <v>0.01908308556186043</v>
+      </c>
+      <c r="F14">
+        <v>0.01404360135524816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03507356601211271</v>
+        <v>0.0331750453724537</v>
       </c>
       <c r="C15">
-        <v>-0.007861146143088112</v>
+        <v>0.004703226175017408</v>
       </c>
       <c r="D15">
-        <v>-0.029939263274558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04506260309933172</v>
+      </c>
+      <c r="E15">
+        <v>0.006016524524257597</v>
+      </c>
+      <c r="F15">
+        <v>0.02542239630876858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07892645710959041</v>
+        <v>0.07409373641257001</v>
       </c>
       <c r="C16">
-        <v>-0.008927937366595121</v>
+        <v>0.0009445769112928543</v>
       </c>
       <c r="D16">
-        <v>-0.09830034884205725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1273250122400399</v>
+      </c>
+      <c r="E16">
+        <v>0.06050458761760463</v>
+      </c>
+      <c r="F16">
+        <v>0.02753712243536052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0008664147459058129</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002227653198722396</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001598399595496752</v>
+      </c>
+      <c r="E17">
+        <v>0.0009708786248096589</v>
+      </c>
+      <c r="F17">
+        <v>-0.002250612098210493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01742371956377555</v>
+        <v>0.03719757311101837</v>
       </c>
       <c r="C18">
-        <v>0.003100482883551711</v>
+        <v>-0.002798192336668548</v>
       </c>
       <c r="D18">
-        <v>-0.02995943914644634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01551170510361256</v>
+      </c>
+      <c r="E18">
+        <v>-0.008766463695474333</v>
+      </c>
+      <c r="F18">
+        <v>-0.008819695291099636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0662781646834792</v>
+        <v>0.06253781057183128</v>
       </c>
       <c r="C20">
-        <v>-0.006851781355381299</v>
+        <v>0.0002480125809596782</v>
       </c>
       <c r="D20">
-        <v>-0.05041554193886994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07697307326859811</v>
+      </c>
+      <c r="E20">
+        <v>0.05538699881943802</v>
+      </c>
+      <c r="F20">
+        <v>0.03029118118071655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04119155397042384</v>
+        <v>0.04132251381650903</v>
       </c>
       <c r="C21">
-        <v>-0.01007028968771069</v>
+        <v>0.006429314150076137</v>
       </c>
       <c r="D21">
-        <v>-0.0299770197584216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03889370951730064</v>
+      </c>
+      <c r="E21">
+        <v>-1.706013580438278e-05</v>
+      </c>
+      <c r="F21">
+        <v>-0.02373003319089132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04056984155838795</v>
+        <v>0.04325985336173201</v>
       </c>
       <c r="C22">
-        <v>-0.0009043180317126908</v>
+        <v>0.0004922062959092922</v>
       </c>
       <c r="D22">
-        <v>0.01197296593587713</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004021795418665694</v>
+      </c>
+      <c r="E22">
+        <v>0.03652448883421989</v>
+      </c>
+      <c r="F22">
+        <v>-0.03836777341183505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04053333135669847</v>
+        <v>0.0432358146465368</v>
       </c>
       <c r="C23">
-        <v>-0.0008945924197079959</v>
+        <v>0.0004837618181380907</v>
       </c>
       <c r="D23">
-        <v>0.01195340892587514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004037361506540846</v>
+      </c>
+      <c r="E23">
+        <v>0.03670757767101967</v>
+      </c>
+      <c r="F23">
+        <v>-0.0383282474047029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08493084130038046</v>
+        <v>0.07993112469304976</v>
       </c>
       <c r="C24">
-        <v>-0.009217379548193639</v>
+        <v>0.001680998324537923</v>
       </c>
       <c r="D24">
-        <v>-0.1032572495276152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.119763115986433</v>
+      </c>
+      <c r="E24">
+        <v>0.04845836812986424</v>
+      </c>
+      <c r="F24">
+        <v>0.02991205866157865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08992635297843524</v>
+        <v>0.08479027115031329</v>
       </c>
       <c r="C25">
-        <v>-0.01165814925402342</v>
+        <v>0.004240014562725982</v>
       </c>
       <c r="D25">
-        <v>-0.08983891253921743</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093517127478908</v>
+      </c>
+      <c r="E25">
+        <v>0.03202857166392457</v>
+      </c>
+      <c r="F25">
+        <v>0.02678146067268707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05907167357758201</v>
+        <v>0.05937201329408209</v>
       </c>
       <c r="C26">
-        <v>-0.01803994852045199</v>
+        <v>0.01456137729621159</v>
       </c>
       <c r="D26">
-        <v>-0.01841814477661635</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04233333546276685</v>
+      </c>
+      <c r="E26">
+        <v>0.0297669196582801</v>
+      </c>
+      <c r="F26">
+        <v>-0.005191088978461936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1299621646831114</v>
+        <v>0.1412569341726302</v>
       </c>
       <c r="C28">
-        <v>-0.01082460806281326</v>
+        <v>0.02207912183488596</v>
       </c>
       <c r="D28">
-        <v>0.271821099509474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2613261047728166</v>
+      </c>
+      <c r="E28">
+        <v>-0.06742838655861365</v>
+      </c>
+      <c r="F28">
+        <v>0.003947597845798804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02649609426199891</v>
+        <v>0.02883809577540182</v>
       </c>
       <c r="C29">
-        <v>-0.009958017440581047</v>
+        <v>0.008749772503443679</v>
       </c>
       <c r="D29">
-        <v>-0.02129921741808212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03124278382849208</v>
+      </c>
+      <c r="E29">
+        <v>0.01407293216711259</v>
+      </c>
+      <c r="F29">
+        <v>-0.01251324768895149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06694093718238021</v>
+        <v>0.05947715755714593</v>
       </c>
       <c r="C30">
-        <v>-0.0105800318188903</v>
+        <v>0.00271847233372855</v>
       </c>
       <c r="D30">
-        <v>-0.05926677308322808</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08789173321335546</v>
+      </c>
+      <c r="E30">
+        <v>0.01400506185498395</v>
+      </c>
+      <c r="F30">
+        <v>0.0796493687259449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05112144526283847</v>
+        <v>0.05133078793499267</v>
       </c>
       <c r="C31">
-        <v>-0.01705495368500528</v>
+        <v>0.01564112918862572</v>
       </c>
       <c r="D31">
-        <v>-0.02030235223602696</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02439767798755031</v>
+      </c>
+      <c r="E31">
+        <v>0.02884680186730337</v>
+      </c>
+      <c r="F31">
+        <v>-0.0009463751056541423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04780970205100783</v>
+        <v>0.0514165366528812</v>
       </c>
       <c r="C32">
-        <v>-0.00239017275762552</v>
+        <v>-0.001841192329780702</v>
       </c>
       <c r="D32">
-        <v>-0.01948844087230218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03621951053829221</v>
+      </c>
+      <c r="E32">
+        <v>0.03454364386392627</v>
+      </c>
+      <c r="F32">
+        <v>0.004412012218678763</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0936785008153317</v>
+        <v>0.0886292914992432</v>
       </c>
       <c r="C33">
-        <v>-0.01425724358583018</v>
+        <v>0.006441356997413868</v>
       </c>
       <c r="D33">
-        <v>-0.07719572035400128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1028413923045187</v>
+      </c>
+      <c r="E33">
+        <v>0.04476564392208616</v>
+      </c>
+      <c r="F33">
+        <v>0.03922460635432648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07191986813157407</v>
+        <v>0.06799464264686701</v>
       </c>
       <c r="C34">
-        <v>-0.01641368081223419</v>
+        <v>0.01003281818370864</v>
       </c>
       <c r="D34">
-        <v>-0.08452089833004381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1099322957776827</v>
+      </c>
+      <c r="E34">
+        <v>0.03503231290011903</v>
+      </c>
+      <c r="F34">
+        <v>0.03333389857736425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.0240253727069275</v>
+        <v>0.02600578274736439</v>
       </c>
       <c r="C35">
-        <v>-0.002971973021042177</v>
+        <v>0.00267471796601493</v>
       </c>
       <c r="D35">
-        <v>-0.006632107978218168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01214086858429318</v>
+      </c>
+      <c r="E35">
+        <v>0.01284137190439405</v>
+      </c>
+      <c r="F35">
+        <v>0.001413863841164218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02707447150364807</v>
+        <v>0.02762505267640561</v>
       </c>
       <c r="C36">
-        <v>-0.008070315043982316</v>
+        <v>0.006837670466789854</v>
       </c>
       <c r="D36">
-        <v>-0.0386060393929926</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03977042847477662</v>
+      </c>
+      <c r="E36">
+        <v>0.01676327215429661</v>
+      </c>
+      <c r="F36">
+        <v>0.015259808701774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-6.342399051142519e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005381852516242456</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002069935007754617</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007355931112039555</v>
+      </c>
+      <c r="F37">
+        <v>-0.001583924181321327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.117380690885308</v>
+        <v>0.1036830594345765</v>
       </c>
       <c r="C39">
-        <v>-0.02494021922583503</v>
+        <v>0.01557307404940769</v>
       </c>
       <c r="D39">
-        <v>-0.1393453093261184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1537977772297178</v>
+      </c>
+      <c r="E39">
+        <v>0.05894237524304359</v>
+      </c>
+      <c r="F39">
+        <v>0.03112188767039209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04071784552006577</v>
+        <v>0.04389215750158863</v>
       </c>
       <c r="C40">
-        <v>-0.009859329383367272</v>
+        <v>0.007517548262443651</v>
       </c>
       <c r="D40">
-        <v>-0.008032853605519927</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03053770804691462</v>
+      </c>
+      <c r="E40">
+        <v>0.001980330147670812</v>
+      </c>
+      <c r="F40">
+        <v>-0.01915725185906052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02565710949046116</v>
+        <v>0.02786009265685589</v>
       </c>
       <c r="C41">
-        <v>-0.00716333775278274</v>
+        <v>0.00684983559989905</v>
       </c>
       <c r="D41">
-        <v>-0.009773379181530383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0108429141321054</v>
+      </c>
+      <c r="E41">
+        <v>0.01228957064338192</v>
+      </c>
+      <c r="F41">
+        <v>-0.005578934114022482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04248717867798209</v>
+        <v>0.04121790492489389</v>
       </c>
       <c r="C43">
-        <v>-0.008296497209876354</v>
+        <v>0.007170047875124977</v>
       </c>
       <c r="D43">
-        <v>-0.01319772603242099</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01872130489868277</v>
+      </c>
+      <c r="E43">
+        <v>0.02558817435349115</v>
+      </c>
+      <c r="F43">
+        <v>-0.01277764516426423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07660819457451508</v>
+        <v>0.08021607294256405</v>
       </c>
       <c r="C44">
-        <v>-0.02727401068615161</v>
+        <v>0.01936151282351276</v>
       </c>
       <c r="D44">
-        <v>-0.07766753409787561</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09778659640744163</v>
+      </c>
+      <c r="E44">
+        <v>0.06186528171209573</v>
+      </c>
+      <c r="F44">
+        <v>0.160033325722416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02068278254158453</v>
+        <v>0.02312989064671197</v>
       </c>
       <c r="C46">
-        <v>-0.003826076225890954</v>
+        <v>0.003249589590273729</v>
       </c>
       <c r="D46">
-        <v>-0.005943104544575455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0127710383474728</v>
+      </c>
+      <c r="E46">
+        <v>0.02596691155384665</v>
+      </c>
+      <c r="F46">
+        <v>-0.006906549572644232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05351097804257231</v>
+        <v>0.05264711299941034</v>
       </c>
       <c r="C47">
-        <v>-0.004606482240466376</v>
+        <v>0.003800878373861617</v>
       </c>
       <c r="D47">
-        <v>-0.0069565347930452</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01145815079740645</v>
+      </c>
+      <c r="E47">
+        <v>0.02341952617168083</v>
+      </c>
+      <c r="F47">
+        <v>-0.03204634524299092</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04960753221511181</v>
+        <v>0.05015078868282926</v>
       </c>
       <c r="C48">
-        <v>-0.005113808987791174</v>
+        <v>0.002125571485806801</v>
       </c>
       <c r="D48">
-        <v>-0.04173489819874328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05078442272880238</v>
+      </c>
+      <c r="E48">
+        <v>-0.004734453913158127</v>
+      </c>
+      <c r="F48">
+        <v>0.009652224817017671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2013002813184144</v>
+        <v>0.1994714061742141</v>
       </c>
       <c r="C49">
-        <v>-0.02122711832175624</v>
+        <v>0.01887956005964377</v>
       </c>
       <c r="D49">
-        <v>0.01749613329035695</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007588639464582372</v>
+      </c>
+      <c r="E49">
+        <v>0.02982399071592392</v>
+      </c>
+      <c r="F49">
+        <v>0.04076813821698509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05051832127282369</v>
+        <v>0.05181903002229049</v>
       </c>
       <c r="C50">
-        <v>-0.01307588965853915</v>
+        <v>0.01140553189025938</v>
       </c>
       <c r="D50">
-        <v>-0.0197556856150237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02370045071474065</v>
+      </c>
+      <c r="E50">
+        <v>0.02999084509608119</v>
+      </c>
+      <c r="F50">
+        <v>0.01007961512071068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1552896737877842</v>
+        <v>0.1494438839666695</v>
       </c>
       <c r="C52">
-        <v>-0.01972703014025998</v>
+        <v>0.0177300783836835</v>
       </c>
       <c r="D52">
-        <v>-0.04954304583877199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04073539570048102</v>
+      </c>
+      <c r="E52">
+        <v>0.02033483751680193</v>
+      </c>
+      <c r="F52">
+        <v>0.04405386172274755</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1724272796733357</v>
+        <v>0.1710634499001449</v>
       </c>
       <c r="C53">
-        <v>-0.01934976814189363</v>
+        <v>0.02001462091376794</v>
       </c>
       <c r="D53">
-        <v>-0.01390265094391529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003315034059381739</v>
+      </c>
+      <c r="E53">
+        <v>0.02773421816105651</v>
+      </c>
+      <c r="F53">
+        <v>0.07349436869851575</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01813796548287604</v>
+        <v>0.02079292305929139</v>
       </c>
       <c r="C54">
-        <v>-0.01274913612301566</v>
+        <v>0.01113188920411344</v>
       </c>
       <c r="D54">
-        <v>-0.02755417696786041</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03480587466335093</v>
+      </c>
+      <c r="E54">
+        <v>0.02227640259829437</v>
+      </c>
+      <c r="F54">
+        <v>-0.001784854082080708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1149577271730234</v>
+        <v>0.1152886752175873</v>
       </c>
       <c r="C55">
-        <v>-0.01747689884183043</v>
+        <v>0.01772579473794658</v>
       </c>
       <c r="D55">
-        <v>-0.01148506739662324</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006396098929926421</v>
+      </c>
+      <c r="E55">
+        <v>0.02327640257373617</v>
+      </c>
+      <c r="F55">
+        <v>0.04679007143959818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1784003003349714</v>
+        <v>0.1769647479549387</v>
       </c>
       <c r="C56">
-        <v>-0.01710528494916381</v>
+        <v>0.01795364888388624</v>
       </c>
       <c r="D56">
-        <v>-0.009737861598179118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004134882150148475</v>
+      </c>
+      <c r="E56">
+        <v>0.03146687064323015</v>
+      </c>
+      <c r="F56">
+        <v>0.05369576116477767</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04942150786306557</v>
+        <v>0.04501390291824641</v>
       </c>
       <c r="C58">
-        <v>-0.005949684764784156</v>
+        <v>-0.0003826195028384134</v>
       </c>
       <c r="D58">
-        <v>-0.05388037363122369</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07189440130868609</v>
+      </c>
+      <c r="E58">
+        <v>0.03295930130040266</v>
+      </c>
+      <c r="F58">
+        <v>-0.03650885915118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1601941855191502</v>
+        <v>0.1668928009276336</v>
       </c>
       <c r="C59">
-        <v>-0.01271154717884494</v>
+        <v>0.02243948355509975</v>
       </c>
       <c r="D59">
-        <v>0.2247369266299435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176602360234482</v>
+      </c>
+      <c r="E59">
+        <v>-0.04677574066566854</v>
+      </c>
+      <c r="F59">
+        <v>-0.03501862268529878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2373576366839124</v>
+        <v>0.2317507106213677</v>
       </c>
       <c r="C60">
-        <v>-0.001218449514278932</v>
+        <v>-0.002013356626812336</v>
       </c>
       <c r="D60">
-        <v>-0.04559064584306219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03859096691479606</v>
+      </c>
+      <c r="E60">
+        <v>0.006220597806182676</v>
+      </c>
+      <c r="F60">
+        <v>0.0001368880769656349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08839335454706615</v>
+        <v>0.07997509033232932</v>
       </c>
       <c r="C61">
-        <v>-0.01854269582815155</v>
+        <v>0.01117720005883238</v>
       </c>
       <c r="D61">
-        <v>-0.09800535138189752</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1175400234786938</v>
+      </c>
+      <c r="E61">
+        <v>0.03913795892004355</v>
+      </c>
+      <c r="F61">
+        <v>0.01358228578639605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1703221532628079</v>
+        <v>0.1688716011015222</v>
       </c>
       <c r="C62">
-        <v>-0.02121815644574981</v>
+        <v>0.02072545526470671</v>
       </c>
       <c r="D62">
-        <v>-0.00603176364845207</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004498099800411077</v>
+      </c>
+      <c r="E62">
+        <v>0.03228194636884887</v>
+      </c>
+      <c r="F62">
+        <v>0.03726921384000467</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04413649190942009</v>
+        <v>0.04621081953120991</v>
       </c>
       <c r="C63">
-        <v>-0.006202355881335265</v>
+        <v>0.001777699370249526</v>
       </c>
       <c r="D63">
-        <v>-0.04302321376647712</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05960841102518266</v>
+      </c>
+      <c r="E63">
+        <v>0.02415491461049386</v>
+      </c>
+      <c r="F63">
+        <v>0.003655800281669723</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1125983794354275</v>
+        <v>0.1108028624859914</v>
       </c>
       <c r="C64">
-        <v>-0.0149773438213253</v>
+        <v>0.01138757552435276</v>
       </c>
       <c r="D64">
-        <v>-0.0321025292462449</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04331805115772325</v>
+      </c>
+      <c r="E64">
+        <v>0.0226344379243719</v>
+      </c>
+      <c r="F64">
+        <v>0.02622323657614093</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1395482341670188</v>
+        <v>0.1511208020065408</v>
       </c>
       <c r="C65">
-        <v>-0.03330194619392308</v>
+        <v>0.03430403269733579</v>
       </c>
       <c r="D65">
-        <v>0.04974763583326598</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04555186411364316</v>
+      </c>
+      <c r="E65">
+        <v>0.004437479856281078</v>
+      </c>
+      <c r="F65">
+        <v>0.03645667275465121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1401866480346272</v>
+        <v>0.1236699278162573</v>
       </c>
       <c r="C66">
-        <v>-0.02305676092567953</v>
+        <v>0.01357197792620676</v>
       </c>
       <c r="D66">
-        <v>-0.1170004142064427</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1409805797358262</v>
+      </c>
+      <c r="E66">
+        <v>0.06388273775422404</v>
+      </c>
+      <c r="F66">
+        <v>0.03451759944249362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06400455130336916</v>
+        <v>0.05706494317561731</v>
       </c>
       <c r="C67">
-        <v>-0.005614367016102293</v>
+        <v>0.002779162113341898</v>
       </c>
       <c r="D67">
-        <v>-0.05220100022417595</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05559817855848496</v>
+      </c>
+      <c r="E67">
+        <v>0.01654155306039675</v>
+      </c>
+      <c r="F67">
+        <v>-0.02966155396960299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.103752701674862</v>
+        <v>0.1161451071049987</v>
       </c>
       <c r="C68">
-        <v>-0.02107001301245926</v>
+        <v>0.03294392836404769</v>
       </c>
       <c r="D68">
-        <v>0.2718471725784073</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2615563617590668</v>
+      </c>
+      <c r="E68">
+        <v>-0.08755891421708353</v>
+      </c>
+      <c r="F68">
+        <v>-0.001993076212322259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04022304859747508</v>
+        <v>0.03905453303708652</v>
       </c>
       <c r="C69">
-        <v>-0.001878479162540483</v>
+        <v>0.001264647722160102</v>
       </c>
       <c r="D69">
-        <v>-0.007214900000471611</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007840893815302835</v>
+      </c>
+      <c r="E69">
+        <v>0.02336773864891451</v>
+      </c>
+      <c r="F69">
+        <v>0.001131121161561934</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06811074821893226</v>
+        <v>0.06678048318445473</v>
       </c>
       <c r="C70">
-        <v>0.02413850853201039</v>
+        <v>-0.02735572416873258</v>
       </c>
       <c r="D70">
-        <v>0.01347568154303112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02437119324499957</v>
+      </c>
+      <c r="E70">
+        <v>-0.03051644474864005</v>
+      </c>
+      <c r="F70">
+        <v>-0.1778492562109532</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1215943475366944</v>
+        <v>0.1356235475885618</v>
       </c>
       <c r="C71">
-        <v>-0.0244776774558126</v>
+        <v>0.03722311581767309</v>
       </c>
       <c r="D71">
-        <v>0.2859600881700314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2724506318702974</v>
+      </c>
+      <c r="E71">
+        <v>-0.09753013566685287</v>
+      </c>
+      <c r="F71">
+        <v>0.004389544390329003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1385673984294023</v>
+        <v>0.1433952545545208</v>
       </c>
       <c r="C72">
-        <v>-0.02751808393995415</v>
+        <v>0.02752938045441604</v>
       </c>
       <c r="D72">
-        <v>-0.001034802974810428</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004793159501156729</v>
+      </c>
+      <c r="E72">
+        <v>0.03594390694370262</v>
+      </c>
+      <c r="F72">
+        <v>0.03040822004969802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2059815543515371</v>
+        <v>0.2042618349640651</v>
       </c>
       <c r="C73">
-        <v>-0.0169455386929144</v>
+        <v>0.01315431749927414</v>
       </c>
       <c r="D73">
-        <v>-0.01454591790106428</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01669800340416368</v>
+      </c>
+      <c r="E73">
+        <v>0.06326376543388841</v>
+      </c>
+      <c r="F73">
+        <v>0.03955065579723432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0929063334913473</v>
+        <v>0.09559835583774576</v>
       </c>
       <c r="C74">
-        <v>-0.01378988766818828</v>
+        <v>0.0136602979784011</v>
       </c>
       <c r="D74">
-        <v>-0.02128655787178292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01554512638496576</v>
+      </c>
+      <c r="E74">
+        <v>0.04339291130169273</v>
+      </c>
+      <c r="F74">
+        <v>0.05655348117273665</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1337688269542297</v>
+        <v>0.1274379544464086</v>
       </c>
       <c r="C75">
-        <v>-0.03014428011240527</v>
+        <v>0.02845092399291897</v>
       </c>
       <c r="D75">
-        <v>-0.02808108544150481</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02818323639929909</v>
+      </c>
+      <c r="E75">
+        <v>0.05608163097874527</v>
+      </c>
+      <c r="F75">
+        <v>0.02267146962086502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08452121816289991</v>
+        <v>0.0898965721520097</v>
       </c>
       <c r="C77">
-        <v>-0.01572098400186812</v>
+        <v>0.008079312373104122</v>
       </c>
       <c r="D77">
-        <v>-0.09418551453185535</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1142612157752142</v>
+      </c>
+      <c r="E77">
+        <v>0.04353024199622606</v>
+      </c>
+      <c r="F77">
+        <v>0.03468834131209587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1049576254671186</v>
+        <v>0.1009377682224878</v>
       </c>
       <c r="C78">
-        <v>-0.0464729549369686</v>
+        <v>0.03938901935770438</v>
       </c>
       <c r="D78">
-        <v>-0.1007395843244391</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1145782942778536</v>
+      </c>
+      <c r="E78">
+        <v>0.07595224563141048</v>
+      </c>
+      <c r="F78">
+        <v>0.049541292163697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1636417437829139</v>
+        <v>0.1634855103144894</v>
       </c>
       <c r="C79">
-        <v>-0.02418231586803474</v>
+        <v>0.02315825849444748</v>
       </c>
       <c r="D79">
-        <v>-0.014236578276573</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01171657062609907</v>
+      </c>
+      <c r="E79">
+        <v>0.04398544545416964</v>
+      </c>
+      <c r="F79">
+        <v>0.0121562878246289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08615665911272101</v>
+        <v>0.08240408035812367</v>
       </c>
       <c r="C80">
-        <v>-0.001938756512945639</v>
+        <v>-0.000643101087166618</v>
       </c>
       <c r="D80">
-        <v>-0.04335085674303172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05524350507276526</v>
+      </c>
+      <c r="E80">
+        <v>0.03534123752546257</v>
+      </c>
+      <c r="F80">
+        <v>-0.01951258137371764</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1200902978906606</v>
+        <v>0.1180521343176977</v>
       </c>
       <c r="C81">
-        <v>-0.0323555817662151</v>
+        <v>0.03194381392483365</v>
       </c>
       <c r="D81">
-        <v>-0.02256841956536922</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01348367630943883</v>
+      </c>
+      <c r="E81">
+        <v>0.05470469746666082</v>
+      </c>
+      <c r="F81">
+        <v>0.02013601973916075</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658666183895043</v>
+        <v>0.1661491583907583</v>
       </c>
       <c r="C82">
-        <v>-0.02491271885160666</v>
+        <v>0.02543512609641521</v>
       </c>
       <c r="D82">
-        <v>-0.01286055964194154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001120533864043244</v>
+      </c>
+      <c r="E82">
+        <v>0.02411318327438751</v>
+      </c>
+      <c r="F82">
+        <v>0.08108140079830188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06714633487745354</v>
+        <v>0.05864512810593567</v>
       </c>
       <c r="C83">
-        <v>-0.006265997173488185</v>
+        <v>0.002948516808695803</v>
       </c>
       <c r="D83">
-        <v>-0.0337519042032585</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04940950148161749</v>
+      </c>
+      <c r="E83">
+        <v>0.002852719529388906</v>
+      </c>
+      <c r="F83">
+        <v>-0.02897349963261958</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06462427822659667</v>
+        <v>0.0585237265389336</v>
       </c>
       <c r="C84">
-        <v>-0.01496833420193658</v>
+        <v>0.01079077871004589</v>
       </c>
       <c r="D84">
-        <v>-0.06438042581938692</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07268129090598607</v>
+      </c>
+      <c r="E84">
+        <v>0.01469962529009564</v>
+      </c>
+      <c r="F84">
+        <v>0.01428066758063879</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1368411317821722</v>
+        <v>0.1352210473634347</v>
       </c>
       <c r="C85">
-        <v>-0.02848537984059408</v>
+        <v>0.02837528622872177</v>
       </c>
       <c r="D85">
-        <v>-0.01738174976013037</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007813759991960481</v>
+      </c>
+      <c r="E85">
+        <v>0.03497585599589699</v>
+      </c>
+      <c r="F85">
+        <v>0.04728714043359423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1033593319506009</v>
+        <v>0.09362931334318479</v>
       </c>
       <c r="C86">
-        <v>0.002643085987164826</v>
+        <v>-0.006282991150823961</v>
       </c>
       <c r="D86">
-        <v>0.006972168297146879</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05045625138076669</v>
+      </c>
+      <c r="E86">
+        <v>0.2433043804060377</v>
+      </c>
+      <c r="F86">
+        <v>-0.9025555245910746</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1006005201744082</v>
+        <v>0.09407074540567313</v>
       </c>
       <c r="C87">
-        <v>-0.02892420930463207</v>
+        <v>0.01914667846194002</v>
       </c>
       <c r="D87">
-        <v>-0.06560962921812945</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09459893960710521</v>
+      </c>
+      <c r="E87">
+        <v>-0.05259469260231976</v>
+      </c>
+      <c r="F87">
+        <v>0.04745351267543289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06086798023719334</v>
+        <v>0.06035208184256109</v>
       </c>
       <c r="C88">
-        <v>-0.005297452679491324</v>
+        <v>0.002236476562990787</v>
       </c>
       <c r="D88">
-        <v>-0.05387620029232146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04950142684765591</v>
+      </c>
+      <c r="E88">
+        <v>0.02399892898736346</v>
+      </c>
+      <c r="F88">
+        <v>0.01526812356077337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1154944016823789</v>
+        <v>0.1265898652202162</v>
       </c>
       <c r="C89">
-        <v>-0.001794143518567094</v>
+        <v>0.01267787553598375</v>
       </c>
       <c r="D89">
-        <v>0.2606884497088161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2437031969909741</v>
+      </c>
+      <c r="E89">
+        <v>-0.08929940949041036</v>
+      </c>
+      <c r="F89">
+        <v>-0.01251588956324094</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1325588814974711</v>
+        <v>0.1502766131149741</v>
       </c>
       <c r="C90">
-        <v>-0.02122800254610402</v>
+        <v>0.03391555146732082</v>
       </c>
       <c r="D90">
-        <v>0.2737261429709961</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2701389216098283</v>
+      </c>
+      <c r="E90">
+        <v>-0.1136908843523063</v>
+      </c>
+      <c r="F90">
+        <v>-0.01252060061733821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1197682932756214</v>
+        <v>0.1211806511393865</v>
       </c>
       <c r="C91">
-        <v>-0.01931805180058238</v>
+        <v>0.0200833767652717</v>
       </c>
       <c r="D91">
-        <v>0.009163295871458572</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01704089964198493</v>
+      </c>
+      <c r="E91">
+        <v>0.0541371967669742</v>
+      </c>
+      <c r="F91">
+        <v>-0.0003520403306925595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1365451764708125</v>
+        <v>0.1465577760058328</v>
       </c>
       <c r="C92">
-        <v>-0.01117925408337303</v>
+        <v>0.02442397124673835</v>
       </c>
       <c r="D92">
-        <v>0.3089577169319245</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2905409416920686</v>
+      </c>
+      <c r="E92">
+        <v>-0.1015311245260772</v>
+      </c>
+      <c r="F92">
+        <v>-0.02138763741403032</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1360915597987362</v>
+        <v>0.1507601382295966</v>
       </c>
       <c r="C93">
-        <v>-0.01684908828447707</v>
+        <v>0.02879933479998452</v>
       </c>
       <c r="D93">
-        <v>0.2692730112257258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2653777911341424</v>
+      </c>
+      <c r="E93">
+        <v>-0.07611522851659387</v>
+      </c>
+      <c r="F93">
+        <v>-0.001866374368742345</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.134573713737034</v>
+        <v>0.1281730932377234</v>
       </c>
       <c r="C94">
-        <v>-0.02725834425808988</v>
+        <v>0.02492367651901045</v>
       </c>
       <c r="D94">
-        <v>-0.04186750324214013</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03996380817919998</v>
+      </c>
+      <c r="E94">
+        <v>0.05619765673735898</v>
+      </c>
+      <c r="F94">
+        <v>0.0354720567966967</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1268598354419379</v>
+        <v>0.1267791177095572</v>
       </c>
       <c r="C95">
-        <v>-0.01060380332586505</v>
+        <v>0.003380870051848884</v>
       </c>
       <c r="D95">
-        <v>-0.07626020673859879</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09814128591548613</v>
+      </c>
+      <c r="E95">
+        <v>0.05321301618966239</v>
+      </c>
+      <c r="F95">
+        <v>-0.005903525836762463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1184284333072913</v>
+        <v>0.1099441514286334</v>
       </c>
       <c r="C96">
-        <v>0.987170911974897</v>
+        <v>-0.9870417094224617</v>
       </c>
       <c r="D96">
-        <v>0.009359112114110195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05113698228068671</v>
+      </c>
+      <c r="E96">
+        <v>0.05237275864481561</v>
+      </c>
+      <c r="F96">
+        <v>0.04299392022126048</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1926390900084109</v>
+        <v>0.1929338890531722</v>
       </c>
       <c r="C97">
-        <v>0.005957157109763404</v>
+        <v>-0.006361588388926183</v>
       </c>
       <c r="D97">
-        <v>0.01501549924635234</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02067749513876965</v>
+      </c>
+      <c r="E97">
+        <v>0.0207792782925142</v>
+      </c>
+      <c r="F97">
+        <v>-0.09280726202703593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1997559662574041</v>
+        <v>0.2067972774270263</v>
       </c>
       <c r="C98">
-        <v>-0.01117266959181267</v>
+        <v>0.007231424565246693</v>
       </c>
       <c r="D98">
-        <v>-0.01256255311738884</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01352476377427446</v>
+      </c>
+      <c r="E98">
+        <v>-0.07478852039275645</v>
+      </c>
+      <c r="F98">
+        <v>-0.09222040540276739</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05643763356260376</v>
+        <v>0.05487959257238232</v>
       </c>
       <c r="C99">
-        <v>0.001976954787725842</v>
+        <v>-0.004411895642709874</v>
       </c>
       <c r="D99">
-        <v>-0.02249142417820571</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03833297517839709</v>
+      </c>
+      <c r="E99">
+        <v>0.0212177744895543</v>
+      </c>
+      <c r="F99">
+        <v>0.003270112341512082</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1421026060718426</v>
+        <v>0.1284694777248109</v>
       </c>
       <c r="C100">
-        <v>0.03744570098565727</v>
+        <v>-0.05305440110664755</v>
       </c>
       <c r="D100">
-        <v>-0.426056330452959</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3497727392538012</v>
+      </c>
+      <c r="E100">
+        <v>-0.8829384593245277</v>
+      </c>
+      <c r="F100">
+        <v>-0.1691396793100799</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02634408313226747</v>
+        <v>0.02878218634490918</v>
       </c>
       <c r="C101">
-        <v>-0.009860447314679666</v>
+        <v>0.008763425238150267</v>
       </c>
       <c r="D101">
-        <v>-0.02095988877281308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03090983899803146</v>
+      </c>
+      <c r="E101">
+        <v>0.01349121826863271</v>
+      </c>
+      <c r="F101">
+        <v>-0.01368583628568543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
